--- a/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>10.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.460000000000001</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9356</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>10.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发高端制造股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>182.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5500</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.63</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6923</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -580,74 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001468</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发改革先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4652</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010160</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3439</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.05</v>
       </c>
     </row>
   </sheetData>
@@ -712,32 +588,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.04</t>
+          <t>54.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3805</t>
+          <t>2.3798</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -760,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>45.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9909</t>
+          <t>2.1744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -788,32 +664,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>29.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3668</t>
+          <t>1.2744</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -826,36 +702,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>013967</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>广发恒享一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>111.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.65</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3647</t>
+          <t>0.9356</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -864,36 +740,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>013968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发恒享一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>40.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.3429</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -902,32 +778,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>900029</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.2204</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -940,36 +816,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>900030</t>
+          <t>013184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票C</t>
+          <t>广发恒阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.2039</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -978,36 +854,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>162717</t>
+          <t>013185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发再融资主题灵活配置混合</t>
+          <t>广发恒阳一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.18</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1072,32 +948,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.21</t>
+          <t>148.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3798</t>
+          <t>6.3805</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1120,26 +996,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.97</t>
+          <t>44.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1744</t>
+          <t>1.9909</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1148,32 +1024,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.03</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2744</t>
+          <t>0.3668</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1186,36 +1062,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013967</t>
+          <t>001468</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发恒享一年持有期混合A</t>
+          <t>广发改革先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>111.38</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>76.65</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9356</t>
+          <t>0.3647</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1224,36 +1100,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013968</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发恒享一年持有期混合C</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3429</t>
+          <t>0.2025</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1262,32 +1138,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>900029</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>中信证券量化优选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1300,36 +1176,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013184</t>
+          <t>900030</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发恒阳一年持有期混合A</t>
+          <t>中信证券量化优选股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2039</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1338,36 +1214,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013185</t>
+          <t>162717</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发恒阳一年持有期混合C</t>
+          <t>广发再融资主题灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>79.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0993</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1268,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1308,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.63</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1346,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.460000000000001</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6923</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1384,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.05</v>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>7.63</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>9.460000000000001</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>10.05</v>
       </c>
     </row>
@@ -537,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>011479</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>广发诚享混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.21</t>
+          <t>36.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>87.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3798</t>
+          <t>1.9694</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011479</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发诚享混合A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45.97</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>87.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1744</t>
+          <t>0.2243</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>富国中证1000指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.03</t>
+          <t>25.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>84.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2744</t>
+          <t>0.1525</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013967</t>
+          <t>162717</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发恒享一年持有期混合A</t>
+          <t>广发再融资主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>111.38</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9356</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -740,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>013968</t>
+          <t>008602</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发恒享一年持有期混合C</t>
+          <t>方正富邦新兴成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28.34</t>
+          <t>86.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3429</t>
+          <t>0.0807</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -778,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>013711</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发再融资主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -816,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013184</t>
+          <t>013331</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发恒阳一年持有期混合A</t>
+          <t>富国中证1000指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>84.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2039</t>
+          <t>0.0512</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -854,35 +871,605 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013185</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发恒阳一年持有期混合C</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>36.27</t>
+          <t>88.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -948,32 +1535,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.04</t>
+          <t>54.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3805</t>
+          <t>2.3798</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -996,26 +1583,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>45.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9909</t>
+          <t>2.1744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1024,32 +1611,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>29.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3668</t>
+          <t>1.2744</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1062,36 +1649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>013967</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>广发恒享一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>111.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.65</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3647</t>
+          <t>0.9356</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1100,36 +1687,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>013968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发恒享一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>40.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.3429</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1138,32 +1725,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>900029</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.2204</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1176,36 +1763,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>900030</t>
+          <t>013184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票C</t>
+          <t>广发恒阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.2039</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1214,36 +1801,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>162717</t>
+          <t>013185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发再融资主题灵活配置混合</t>
+          <t>广发恒阳一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.18</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1252,6 +1839,366 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300393-中来股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.75</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>7.63</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>9.460000000000001</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.05</v>
       </c>
     </row>
@@ -549,6 +566,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,366 +1733,6 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011121</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发兴诚混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3798</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011479</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发诚享混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>45.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1744</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011130</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发兴诚混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2744</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013967</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发恒享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>111.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9356</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013968</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发恒享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3429</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011480</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发诚享混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2204</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013184</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发恒阳一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>36.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2039</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013185</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发恒阳一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>36.27</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1895,32 +1798,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.04</t>
+          <t>54.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.3805</t>
+          <t>2.3798</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1943,26 +1846,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.44</t>
+          <t>45.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9909</t>
+          <t>2.1744</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1971,32 +1874,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>29.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3668</t>
+          <t>1.2744</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2009,36 +1912,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001468</t>
+          <t>013967</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发改革先锋灵活配置混合</t>
+          <t>广发恒享一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>111.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.65</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3647</t>
+          <t>0.9356</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2047,36 +1950,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011480</t>
+          <t>013968</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发诚享混合C</t>
+          <t>广发恒享一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>40.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2025</t>
+          <t>0.3429</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2085,32 +1988,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>900029</t>
+          <t>011480</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票A</t>
+          <t>广发诚享混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.2204</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2123,36 +2026,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>900030</t>
+          <t>013184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信证券量化优选股票C</t>
+          <t>广发恒阳一年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>20.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.2039</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2161,36 +2064,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>162717</t>
+          <t>013185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发再融资主题灵活配置混合</t>
+          <t>广发恒阳一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79.18</t>
+          <t>36.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2199,6 +2102,366 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
